--- a/DateBase/orders/Nha Thu_2025-6-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-21.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010555105510584101568111710101010551010105100</v>
+        <v>01010555105510584101568111710101010551010105101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-21.xlsx
@@ -692,7 +692,7 @@
         <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010555105510584101568111710101010551010105101</v>
+        <v>010105551055105841015681117101010105510101051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-21.xlsx
@@ -757,6 +757,9 @@
       <c r="G2" t="str">
         <v>010105551055105841015681117101010105510101051010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
